--- a/data/ErailNewFile.xlsx
+++ b/data/ErailNewFile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="143">
   <si>
     <t>Train</t>
   </si>
@@ -101,6 +101,12 @@
     <t>Get</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>12510</t>
   </si>
   <si>
@@ -119,6 +125,9 @@
     <t>05.54</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>15902</t>
   </si>
   <si>
@@ -134,12 +143,6 @@
     <t>06.55</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>12007</t>
   </si>
   <si>
@@ -155,10 +158,10 @@
     <t>04.50</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>38</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>22625</t>
@@ -179,7 +182,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>12639</t>
@@ -197,9 +200,6 @@
     <t>06.10</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>22601</t>
   </si>
   <si>
@@ -218,241 +218,229 @@
     <t>05.18</t>
   </si>
   <si>
-    <t>2</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>12552</t>
+  </si>
+  <si>
+    <t>KYQ YPR AC EXP</t>
+  </si>
+  <si>
+    <t>11.40</t>
+  </si>
+  <si>
+    <t>18.30</t>
+  </si>
+  <si>
+    <t>06.50</t>
+  </si>
+  <si>
+    <t>12609</t>
+  </si>
+  <si>
+    <t>BANGALORE EXP</t>
+  </si>
+  <si>
+    <t>13.35</t>
+  </si>
+  <si>
+    <t>19.24</t>
+  </si>
+  <si>
+    <t>05.49</t>
+  </si>
+  <si>
+    <t>17311</t>
+  </si>
+  <si>
+    <t>MAS VASCO EXP</t>
+  </si>
+  <si>
+    <t>13.45</t>
+  </si>
+  <si>
+    <t>21.35</t>
+  </si>
+  <si>
+    <t>17313</t>
+  </si>
+  <si>
+    <t>MAS HUBLI EXP</t>
+  </si>
+  <si>
+    <t>12296</t>
+  </si>
+  <si>
+    <t>SANGHA MITRA EX</t>
+  </si>
+  <si>
+    <t>13.55</t>
+  </si>
+  <si>
+    <t>19.44</t>
+  </si>
+  <si>
+    <t>12577</t>
+  </si>
+  <si>
+    <t>BAGMATI EXPRESS</t>
+  </si>
+  <si>
+    <t>14.45</t>
+  </si>
+  <si>
+    <t>19.58</t>
+  </si>
+  <si>
+    <t>05.13</t>
+  </si>
+  <si>
+    <t>22351</t>
+  </si>
+  <si>
+    <t>PPTA YPR EXP</t>
+  </si>
+  <si>
+    <t>20.55</t>
+  </si>
+  <si>
+    <t>02510</t>
+  </si>
+  <si>
+    <t>KYQ BNC SUVIDHA Till 30-Jun</t>
+  </si>
+  <si>
+    <t>15.10</t>
+  </si>
+  <si>
+    <t>BNC</t>
+  </si>
+  <si>
+    <t>21.15</t>
+  </si>
+  <si>
+    <t>06.05</t>
+  </si>
+  <si>
+    <t>12607</t>
+  </si>
+  <si>
+    <t>LALBAGH EXPRESS</t>
+  </si>
+  <si>
+    <t>15.35</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>12027</t>
+  </si>
+  <si>
+    <t>17.30</t>
+  </si>
+  <si>
+    <t>22.30</t>
+  </si>
+  <si>
+    <t>05.00</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>16021</t>
+  </si>
+  <si>
+    <t>KAVERI EXPRESS</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>02.49</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>12657</t>
+  </si>
+  <si>
+    <t>BANGALORE MAIL</t>
+  </si>
+  <si>
+    <t>23.15</t>
+  </si>
+  <si>
+    <t>04.24</t>
+  </si>
+  <si>
+    <t>05.09</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>12691</t>
+  </si>
+  <si>
+    <t>SSPN EXPRESS</t>
+  </si>
+  <si>
+    <t>23.30</t>
+  </si>
+  <si>
+    <t>05.25</t>
+  </si>
+  <si>
+    <t>05.55</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>12292</t>
+  </si>
+  <si>
+    <t>YESVANTPUR EXP</t>
+  </si>
+  <si>
+    <t>06.30</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>22682</t>
+  </si>
+  <si>
+    <t>MYSORE EXPRESS</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>12552</t>
-  </si>
-  <si>
-    <t>KYQ YPR AC EXP</t>
-  </si>
-  <si>
-    <t>11.40</t>
-  </si>
-  <si>
-    <t>18.30</t>
-  </si>
-  <si>
-    <t>06.50</t>
-  </si>
-  <si>
-    <t>12609</t>
-  </si>
-  <si>
-    <t>BANGALORE EXP</t>
-  </si>
-  <si>
-    <t>13.35</t>
-  </si>
-  <si>
-    <t>19.24</t>
-  </si>
-  <si>
-    <t>05.49</t>
-  </si>
-  <si>
-    <t>17311</t>
-  </si>
-  <si>
-    <t>MAS VASCO EXP</t>
-  </si>
-  <si>
-    <t>13.45</t>
-  </si>
-  <si>
-    <t>21.35</t>
-  </si>
-  <si>
-    <t>17313</t>
-  </si>
-  <si>
-    <t>MAS HUBLI EXP</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>12296</t>
-  </si>
-  <si>
-    <t>SANGHA MITRA EX</t>
-  </si>
-  <si>
-    <t>13.55</t>
-  </si>
-  <si>
-    <t>19.44</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>12577</t>
-  </si>
-  <si>
-    <t>BAGMATI EXPRESS</t>
-  </si>
-  <si>
-    <t>14.45</t>
-  </si>
-  <si>
-    <t>19.58</t>
-  </si>
-  <si>
-    <t>05.13</t>
-  </si>
-  <si>
-    <t>22351</t>
-  </si>
-  <si>
-    <t>PPTA YPR EXP</t>
-  </si>
-  <si>
-    <t>20.55</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>02510</t>
-  </si>
-  <si>
-    <t>KYQ BNC SUVIDHA14-Apr to 30-Jun</t>
-  </si>
-  <si>
-    <t>15.10</t>
-  </si>
-  <si>
-    <t>BNC</t>
-  </si>
-  <si>
-    <t>21.15</t>
-  </si>
-  <si>
-    <t>06.05</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>12607</t>
-  </si>
-  <si>
-    <t>LALBAGH EXPRESS</t>
-  </si>
-  <si>
-    <t>15.35</t>
-  </si>
-  <si>
-    <t>395</t>
-  </si>
-  <si>
-    <t>12027</t>
-  </si>
-  <si>
-    <t>17.30</t>
-  </si>
-  <si>
-    <t>22.30</t>
-  </si>
-  <si>
-    <t>05.00</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>58</t>
-  </si>
-  <si>
-    <t>16021</t>
-  </si>
-  <si>
-    <t>KAVERI EXPRESS</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>02.49</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>12657</t>
-  </si>
-  <si>
-    <t>BANGALORE MAIL</t>
-  </si>
-  <si>
-    <t>23.15</t>
-  </si>
-  <si>
-    <t>04.24</t>
-  </si>
-  <si>
-    <t>05.09</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>12691</t>
-  </si>
-  <si>
-    <t>SSPN EXPRESS</t>
-  </si>
-  <si>
-    <t>23.30</t>
-  </si>
-  <si>
-    <t>05.25</t>
-  </si>
-  <si>
-    <t>05.55</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>12292</t>
-  </si>
-  <si>
-    <t>YESVANTPUR EXP</t>
-  </si>
-  <si>
-    <t>06.30</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>22682</t>
-  </si>
-  <si>
-    <t>MYSORE EXPRESS</t>
-  </si>
-  <si>
-    <t>25</t>
   </si>
 </sst>
 </file>
@@ -621,13 +609,13 @@
         <v>28</v>
       </c>
       <c r="S2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T2" t="s">
         <v>26</v>
       </c>
       <c r="U2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V2" t="s">
         <v>26</v>
@@ -635,25 +623,25 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
         <v>7</v>
@@ -686,13 +674,13 @@
         <v>28</v>
       </c>
       <c r="S3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="T3" t="s">
         <v>26</v>
       </c>
       <c r="U3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V3" t="s">
         <v>26</v>
@@ -700,25 +688,25 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
         <v>7</v>
@@ -751,13 +739,13 @@
         <v>28</v>
       </c>
       <c r="S4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="T4" t="s">
         <v>26</v>
       </c>
       <c r="U4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="V4" t="s">
         <v>26</v>
@@ -765,25 +753,25 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -810,7 +798,7 @@
         <v>27</v>
       </c>
       <c r="Q5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R5" t="s">
         <v>26</v>
@@ -819,7 +807,7 @@
         <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U5" t="s">
         <v>26</v>
@@ -830,28 +818,28 @@
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
         <v>27</v>
@@ -884,7 +872,7 @@
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U6" t="s">
         <v>26</v>
@@ -895,28 +883,28 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
         <v>27</v>
@@ -955,7 +943,7 @@
         <v>26</v>
       </c>
       <c r="V7" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -1017,7 +1005,7 @@
         <v>26</v>
       </c>
       <c r="U8" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="V8" t="s">
         <v>26</v>
@@ -1025,25 +1013,25 @@
     </row>
     <row r="9">
       <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
         <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
       </c>
       <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
         <v>73</v>
-      </c>
-      <c r="H9" t="s">
-        <v>74</v>
       </c>
       <c r="I9" t="s">
         <v>7</v>
@@ -1090,28 +1078,28 @@
     </row>
     <row r="10">
       <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
         <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>76</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
         <v>77</v>
       </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>78</v>
       </c>
-      <c r="H10" t="s">
-        <v>79</v>
-      </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J10" t="s">
         <v>27</v>
@@ -1155,25 +1143,25 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
         <v>80</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
         <v>7</v>
@@ -1220,25 +1208,25 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
         <v>84</v>
-      </c>
-      <c r="C12" t="s">
-        <v>85</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
         <v>7</v>
@@ -1268,16 +1256,16 @@
         <v>26</v>
       </c>
       <c r="R12" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="S12" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="T12" t="s">
         <v>26</v>
       </c>
       <c r="U12" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="V12" t="s">
         <v>26</v>
@@ -1285,28 +1273,28 @@
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
         <v>27</v>
@@ -1336,13 +1324,13 @@
         <v>28</v>
       </c>
       <c r="S13" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="T13" t="s">
         <v>26</v>
       </c>
       <c r="U13" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="V13" t="s">
         <v>26</v>
@@ -1350,25 +1338,25 @@
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s">
         <v>7</v>
@@ -1415,25 +1403,25 @@
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
         <v>7</v>
@@ -1463,16 +1451,16 @@
         <v>26</v>
       </c>
       <c r="R15" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="S15" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="T15" t="s">
         <v>26</v>
       </c>
       <c r="U15" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="V15" t="s">
         <v>26</v>
@@ -1480,25 +1468,25 @@
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="I16" t="s">
         <v>7</v>
@@ -1531,13 +1519,13 @@
         <v>28</v>
       </c>
       <c r="S16" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="T16" t="s">
         <v>26</v>
       </c>
       <c r="U16" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="V16" t="s">
         <v>26</v>
@@ -1545,28 +1533,28 @@
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J17" t="s">
         <v>27</v>
@@ -1599,36 +1587,36 @@
         <v>26</v>
       </c>
       <c r="T17" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="U17" t="s">
         <v>26</v>
       </c>
       <c r="V17" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="H18" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I18" t="s">
         <v>7</v>
@@ -1655,7 +1643,7 @@
         <v>27</v>
       </c>
       <c r="Q18" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="R18" t="s">
         <v>26</v>
@@ -1664,7 +1652,7 @@
         <v>26</v>
       </c>
       <c r="T18" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="U18" t="s">
         <v>26</v>
@@ -1675,28 +1663,28 @@
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J19" t="s">
         <v>27</v>
@@ -1726,13 +1714,13 @@
         <v>28</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="T19" t="s">
         <v>26</v>
       </c>
       <c r="U19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="V19" t="s">
         <v>26</v>
@@ -1740,28 +1728,28 @@
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J20" t="s">
         <v>27</v>
@@ -1791,13 +1779,13 @@
         <v>28</v>
       </c>
       <c r="S20" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="T20" t="s">
         <v>26</v>
       </c>
       <c r="U20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="V20" t="s">
         <v>26</v>
@@ -1805,25 +1793,25 @@
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H21" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I21" t="s">
         <v>7</v>
@@ -1853,16 +1841,16 @@
         <v>26</v>
       </c>
       <c r="R21" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="S21" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="T21" t="s">
         <v>26</v>
       </c>
       <c r="U21" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="V21" t="s">
         <v>26</v>
@@ -1870,25 +1858,25 @@
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I22" t="s">
         <v>7</v>
@@ -1921,13 +1909,13 @@
         <v>28</v>
       </c>
       <c r="S22" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="T22" t="s">
         <v>26</v>
       </c>
       <c r="U22" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="V22" t="s">
         <v>26</v>
@@ -1935,25 +1923,25 @@
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H23" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
         <v>7</v>
@@ -1986,13 +1974,13 @@
         <v>28</v>
       </c>
       <c r="S23" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="T23" t="s">
         <v>26</v>
       </c>
       <c r="U23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V23" t="s">
         <v>26</v>
